--- a/python/savings.xlsx
+++ b/python/savings.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
   <si>
     <t>NAME</t>
   </si>
@@ -613,46 +613,47 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
+        <bgColor theme="4" tint="0.5999938962981048"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.7999816888943144"/>
+        <bgColor theme="4" tint="0.7999816888943144"/>
       </patternFill>
     </fill>
   </fills>
@@ -705,22 +706,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1008,34 +1008,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:P94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="25.28515625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="13.42578125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="7"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="6"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="7"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="9.42578125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="6"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="3.5703125"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="4.5703125"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" width="3.28515625"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" width="13.28515625"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" width="6"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" width="7.85546875"/>
+    <col bestFit="1" customWidth="1" max="14" min="14" width="8.85546875"/>
+    <col bestFit="1" customWidth="1" max="15" min="15" width="9.5703125"/>
+    <col bestFit="1" customWidth="1" max="16" min="16" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1">
+    <row customFormat="1" r="1" s="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1292,16 +1296,16 @@
       <c r="B27" t="s">
         <v>67</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>13282</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>150000</v>
       </c>
-      <c r="O27">
+      <c r="O27" t="n">
         <v>79200</v>
       </c>
-      <c r="P27">
+      <c r="P27" t="n">
         <v>11000</v>
       </c>
     </row>
@@ -1440,19 +1444,19 @@
       <c r="B44" t="s">
         <v>101</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>122250</v>
       </c>
-      <c r="E44">
-        <v>5000</v>
-      </c>
-      <c r="G44">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>16830</v>
       </c>
-      <c r="L44">
-        <v>80000</v>
-      </c>
-      <c r="P44">
+      <c r="L44" t="n">
+        <v>77000</v>
+      </c>
+      <c r="P44" t="n">
         <v>2200</v>
       </c>
     </row>
@@ -1488,15 +1492,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:16">
       <c r="A49" s="4" t="s">
         <v>110</v>
       </c>
       <c r="B49" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="E49" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="5" t="s">
         <v>112</v>
       </c>
@@ -1504,7 +1511,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:16">
       <c r="A51" s="4" t="s">
         <v>114</v>
       </c>
@@ -1512,7 +1519,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:16">
       <c r="A52" s="5" t="s">
         <v>116</v>
       </c>
@@ -1520,7 +1527,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:16">
       <c r="A53" s="4" t="s">
         <v>118</v>
       </c>
@@ -1528,7 +1535,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:16">
       <c r="A54" s="5" t="s">
         <v>120</v>
       </c>
@@ -1536,7 +1543,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:16">
       <c r="A55" s="4" t="s">
         <v>122</v>
       </c>
@@ -1544,7 +1551,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:16">
       <c r="A56" s="5" t="s">
         <v>124</v>
       </c>
@@ -1552,7 +1559,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:16">
       <c r="A57" s="4" t="s">
         <v>126</v>
       </c>
@@ -1560,7 +1567,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:16">
       <c r="A58" s="5" t="s">
         <v>128</v>
       </c>
@@ -1568,7 +1575,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:16">
       <c r="A59" s="4" t="s">
         <v>130</v>
       </c>
@@ -1576,7 +1583,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:16">
       <c r="A60" s="5" t="s">
         <v>132</v>
       </c>
@@ -1584,7 +1591,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:16">
       <c r="A61" s="4" t="s">
         <v>134</v>
       </c>
@@ -1592,7 +1599,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:16">
       <c r="A62" s="5" t="s">
         <v>136</v>
       </c>
@@ -1600,7 +1607,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:16">
       <c r="A63" s="4" t="s">
         <v>138</v>
       </c>
@@ -1608,7 +1615,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:16">
       <c r="A64" s="5" t="s">
         <v>140</v>
       </c>
@@ -1616,7 +1623,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:16">
       <c r="A65" s="4" t="s">
         <v>142</v>
       </c>
@@ -1624,7 +1631,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:16">
       <c r="A66" s="5" t="s">
         <v>144</v>
       </c>
@@ -1632,7 +1639,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:16">
       <c r="A67" s="4" t="s">
         <v>146</v>
       </c>
@@ -1640,7 +1647,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:16">
       <c r="A68" s="5" t="s">
         <v>148</v>
       </c>
@@ -1648,7 +1655,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:16">
       <c r="A69" s="4" t="s">
         <v>150</v>
       </c>
@@ -1656,7 +1663,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:16">
       <c r="A70" s="5" t="s">
         <v>152</v>
       </c>
@@ -1664,7 +1671,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:16">
       <c r="A71" s="4" t="s">
         <v>154</v>
       </c>
@@ -1672,7 +1679,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:16">
       <c r="A72" s="5" t="s">
         <v>156</v>
       </c>
@@ -1680,7 +1687,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:16">
       <c r="A73" s="4" t="s">
         <v>158</v>
       </c>
@@ -1688,7 +1695,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:16">
       <c r="A74" s="5" t="s">
         <v>160</v>
       </c>
@@ -1696,7 +1703,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:16">
       <c r="A75" s="4" t="s">
         <v>162</v>
       </c>
@@ -1704,7 +1711,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:16">
       <c r="A76" s="5" t="s">
         <v>164</v>
       </c>
@@ -1712,7 +1719,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:16">
       <c r="A77" s="4" t="s">
         <v>166</v>
       </c>
@@ -1720,7 +1727,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:16">
       <c r="A78" s="5" t="s">
         <v>168</v>
       </c>
@@ -1728,7 +1735,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:16">
       <c r="A79" s="4" t="s">
         <v>170</v>
       </c>
@@ -1736,7 +1743,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:16">
       <c r="A80" s="5" t="s">
         <v>172</v>
       </c>
@@ -1744,7 +1751,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:16">
       <c r="A81" s="4" t="s">
         <v>174</v>
       </c>
@@ -1752,7 +1759,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:16">
       <c r="A82" s="5" t="s">
         <v>176</v>
       </c>
@@ -1760,12 +1767,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:16">
       <c r="A83" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:16">
       <c r="A84" s="5" t="s">
         <v>179</v>
       </c>
@@ -1773,7 +1780,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:16">
       <c r="A85" s="4" t="s">
         <v>181</v>
       </c>
@@ -1781,7 +1788,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:16">
       <c r="A86" s="5" t="s">
         <v>183</v>
       </c>
@@ -1789,7 +1796,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:16">
       <c r="A87" s="4" t="s">
         <v>185</v>
       </c>
@@ -1797,7 +1804,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:16">
       <c r="A88" s="5" t="s">
         <v>187</v>
       </c>
@@ -1805,7 +1812,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:16">
       <c r="A89" s="4" t="s">
         <v>189</v>
       </c>
@@ -1813,7 +1820,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:16">
       <c r="A90" s="5" t="s">
         <v>191</v>
       </c>
@@ -1821,51 +1828,63 @@
         <v>192</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:16">
       <c r="A91" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:16">
       <c r="A92" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:16">
       <c r="A93" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:16">
       <c r="A94" s="6" t="s">
         <v>196</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/python/savings.xlsx
+++ b/python/savings.xlsx
@@ -1324,6 +1324,15 @@
       <c r="B29" t="s">
         <v>71</v>
       </c>
+      <c r="K29" t="n">
+        <v>64000</v>
+      </c>
+      <c r="L29" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O29" t="n">
+        <v>78000</v>
+      </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="5" t="s">

--- a/python/savings.xlsx
+++ b/python/savings.xlsx
@@ -1583,6 +1583,12 @@
       <c r="B58" t="s">
         <v>129</v>
       </c>
+      <c r="E58" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O58" t="n">
+        <v>99600</v>
+      </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="4" t="s">

--- a/python/savings.xlsx
+++ b/python/savings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -189,7 +189,7 @@
     <t>NAND KISHOR KUMAR</t>
   </si>
   <si>
-    <t>CYEPK3547G</t>
+    <t>CYEPK9547G</t>
   </si>
   <si>
     <t>SANTU KUMAR</t>
@@ -1015,8 +1015,8 @@
   </sheetPr>
   <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -1120,6 +1120,18 @@
       <c r="B5" t="s">
         <v>23</v>
       </c>
+      <c r="E5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3822</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="5" t="s">
@@ -1192,6 +1204,9 @@
       <c r="B14" t="s">
         <v>41</v>
       </c>
+      <c r="D14" t="n">
+        <v>69271</v>
+      </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="4" t="s">
@@ -1200,6 +1215,21 @@
       <c r="B15" t="s">
         <v>43</v>
       </c>
+      <c r="C15" t="n">
+        <v>146531</v>
+      </c>
+      <c r="D15" t="n">
+        <v>41973</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>52237</v>
+      </c>
+      <c r="N15" t="n">
+        <v>12794</v>
+      </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="5" t="s">
@@ -1216,6 +1246,12 @@
       <c r="B17" t="s">
         <v>47</v>
       </c>
+      <c r="E17" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>18234</v>
+      </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="5" t="s">
@@ -1232,6 +1268,9 @@
       <c r="B19" t="s">
         <v>51</v>
       </c>
+      <c r="D19" t="n">
+        <v>6957</v>
+      </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="5" t="s">
@@ -1256,6 +1295,9 @@
       <c r="B22" t="s">
         <v>57</v>
       </c>
+      <c r="N22" t="n">
+        <v>25000</v>
+      </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="4" t="s">
@@ -1264,6 +1306,9 @@
       <c r="B23" t="s">
         <v>59</v>
       </c>
+      <c r="O23" t="n">
+        <v>60000</v>
+      </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="5" t="s">
@@ -1300,13 +1345,16 @@
         <v>13282</v>
       </c>
       <c r="E27" t="n">
-        <v>150000</v>
+        <v>11000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>129000</v>
       </c>
       <c r="O27" t="n">
         <v>79200</v>
       </c>
       <c r="P27" t="n">
-        <v>11000</v>
+        <v>16251</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1316,6 +1364,18 @@
       <c r="B28" t="s">
         <v>69</v>
       </c>
+      <c r="D28" t="n">
+        <v>12247</v>
+      </c>
+      <c r="E28" t="n">
+        <v>30000</v>
+      </c>
+      <c r="H28" t="n">
+        <v>30600</v>
+      </c>
+      <c r="P28" t="n">
+        <v>10851</v>
+      </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="4" t="s">
@@ -1357,6 +1417,15 @@
       <c r="B32" t="s">
         <v>77</v>
       </c>
+      <c r="D32" t="n">
+        <v>5500</v>
+      </c>
+      <c r="E32" t="n">
+        <v>82000</v>
+      </c>
+      <c r="L32" t="n">
+        <v>58000</v>
+      </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="4" t="s">
@@ -1365,6 +1434,12 @@
       <c r="B33" t="s">
         <v>79</v>
       </c>
+      <c r="D33" t="n">
+        <v>21881</v>
+      </c>
+      <c r="P33" t="n">
+        <v>7370</v>
+      </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="5" t="s">
@@ -1373,6 +1448,15 @@
       <c r="B34" t="s">
         <v>81</v>
       </c>
+      <c r="C34" t="n">
+        <v>128243</v>
+      </c>
+      <c r="E34" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>34537</v>
+      </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="4" t="s">
@@ -1381,6 +1465,18 @@
       <c r="B35" t="s">
         <v>83</v>
       </c>
+      <c r="D35" t="n">
+        <v>13718</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6000</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3200</v>
+      </c>
+      <c r="N35" t="n">
+        <v>6364</v>
+      </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="5" t="s">
@@ -1405,6 +1501,12 @@
       <c r="B38" t="s">
         <v>89</v>
       </c>
+      <c r="D38" t="n">
+        <v>12213</v>
+      </c>
+      <c r="L38" t="n">
+        <v>18000</v>
+      </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="4" t="s">
@@ -1413,6 +1515,15 @@
       <c r="B39" t="s">
         <v>91</v>
       </c>
+      <c r="D39" t="n">
+        <v>6005</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H39" t="n">
+        <v>30600</v>
+      </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="5" t="s">
@@ -1500,6 +1611,18 @@
       <c r="B48" t="s">
         <v>109</v>
       </c>
+      <c r="D48" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H48" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L48" t="n">
+        <v>126000</v>
+      </c>
+      <c r="N48" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="4" t="s">
@@ -1511,6 +1634,9 @@
       <c r="E49" t="n">
         <v>150000</v>
       </c>
+      <c r="P49" t="n">
+        <v>10283</v>
+      </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="5" t="s">
@@ -1519,6 +1645,12 @@
       <c r="B50" t="s">
         <v>113</v>
       </c>
+      <c r="L50" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N50" t="n">
+        <v>12500</v>
+      </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="4" t="s">
@@ -1551,6 +1683,12 @@
       <c r="B54" t="s">
         <v>121</v>
       </c>
+      <c r="D54" t="n">
+        <v>15456</v>
+      </c>
+      <c r="O54" t="n">
+        <v>57600</v>
+      </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="4" t="s">
@@ -1559,6 +1697,15 @@
       <c r="B55" t="s">
         <v>123</v>
       </c>
+      <c r="D55" t="n">
+        <v>77114</v>
+      </c>
+      <c r="E55" t="n">
+        <v>30000</v>
+      </c>
+      <c r="O55" t="n">
+        <v>98400</v>
+      </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="5" t="s">
@@ -1669,6 +1816,9 @@
       <c r="B68" t="s">
         <v>149</v>
       </c>
+      <c r="E68" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="4" t="s">
@@ -1725,6 +1875,9 @@
       <c r="B75" t="s">
         <v>163</v>
       </c>
+      <c r="E75" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="5" t="s">
@@ -1741,6 +1894,18 @@
       <c r="B77" t="s">
         <v>167</v>
       </c>
+      <c r="D77" t="n">
+        <v>24324</v>
+      </c>
+      <c r="E77" t="n">
+        <v>25500</v>
+      </c>
+      <c r="L77" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O77" t="n">
+        <v>54000</v>
+      </c>
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="5" t="s">
@@ -1793,6 +1958,12 @@
       </c>
       <c r="B84" t="s">
         <v>180</v>
+      </c>
+      <c r="H84" t="n">
+        <v>35400</v>
+      </c>
+      <c r="O84" t="n">
+        <v>86400</v>
       </c>
     </row>
     <row r="85" spans="1:16">

--- a/python/savings.xlsx
+++ b/python/savings.xlsx
@@ -1238,6 +1238,9 @@
       <c r="B16" t="s">
         <v>45</v>
       </c>
+      <c r="D16" t="n">
+        <v>20046</v>
+      </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="4" t="s">
@@ -1279,6 +1282,15 @@
       <c r="B20" t="s">
         <v>53</v>
       </c>
+      <c r="C20" t="n">
+        <v>193506</v>
+      </c>
+      <c r="D20" t="n">
+        <v>13508</v>
+      </c>
+      <c r="G20" t="n">
+        <v>17334</v>
+      </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="4" t="s">
@@ -1333,6 +1345,9 @@
       <c r="B26" t="s">
         <v>65</v>
       </c>
+      <c r="D26" t="n">
+        <v>60144</v>
+      </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="4" t="s">
@@ -1409,6 +1424,12 @@
       <c r="B31" t="s">
         <v>75</v>
       </c>
+      <c r="D31" t="n">
+        <v>31768</v>
+      </c>
+      <c r="E31" t="n">
+        <v>81000</v>
+      </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="5" t="s">
@@ -1485,6 +1506,12 @@
       <c r="B36" t="s">
         <v>85</v>
       </c>
+      <c r="D36" t="n">
+        <v>19872</v>
+      </c>
+      <c r="E36" t="n">
+        <v>41000</v>
+      </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="4" t="s">
@@ -1587,6 +1614,9 @@
       <c r="B45" t="s">
         <v>103</v>
       </c>
+      <c r="E45" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="5" t="s">
@@ -1603,6 +1633,9 @@
       <c r="B47" t="s">
         <v>107</v>
       </c>
+      <c r="E47" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="5" t="s">
@@ -1659,6 +1692,18 @@
       <c r="B51" t="s">
         <v>115</v>
       </c>
+      <c r="D51" t="n">
+        <v>25500</v>
+      </c>
+      <c r="E51" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N51" t="n">
+        <v>25000</v>
+      </c>
+      <c r="P51" t="n">
+        <v>14468</v>
+      </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="5" t="s">
@@ -1714,6 +1759,12 @@
       <c r="B56" t="s">
         <v>125</v>
       </c>
+      <c r="N56" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O56" t="n">
+        <v>62800</v>
+      </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="4" t="s">
@@ -1744,6 +1795,12 @@
       <c r="B59" t="s">
         <v>131</v>
       </c>
+      <c r="E59" t="n">
+        <v>57000</v>
+      </c>
+      <c r="H59" t="n">
+        <v>52200</v>
+      </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="5" t="s">
@@ -1752,6 +1809,15 @@
       <c r="B60" t="s">
         <v>133</v>
       </c>
+      <c r="D60" t="n">
+        <v>22440</v>
+      </c>
+      <c r="L60" t="n">
+        <v>24000</v>
+      </c>
+      <c r="P60" t="n">
+        <v>14000</v>
+      </c>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="4" t="s">
@@ -1760,6 +1826,21 @@
       <c r="B61" t="s">
         <v>135</v>
       </c>
+      <c r="D61" t="n">
+        <v>31882</v>
+      </c>
+      <c r="E61" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H61" t="n">
+        <v>34261</v>
+      </c>
+      <c r="N61" t="n">
+        <v>7287</v>
+      </c>
+      <c r="O61" t="n">
+        <v>84000</v>
+      </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="5" t="s">
@@ -1776,6 +1857,15 @@
       <c r="B63" t="s">
         <v>139</v>
       </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>66000</v>
+      </c>
+      <c r="N63" t="n">
+        <v>24000</v>
+      </c>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="5" t="s">
@@ -1784,6 +1874,9 @@
       <c r="B64" t="s">
         <v>141</v>
       </c>
+      <c r="D64" t="n">
+        <v>23518</v>
+      </c>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="4" t="s">
@@ -1792,6 +1885,9 @@
       <c r="B65" t="s">
         <v>143</v>
       </c>
+      <c r="E65" t="n">
+        <v>130000</v>
+      </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="5" t="s">
@@ -1808,6 +1904,12 @@
       <c r="B67" t="s">
         <v>147</v>
       </c>
+      <c r="D67" t="n">
+        <v>25246</v>
+      </c>
+      <c r="H67" t="n">
+        <v>67053</v>
+      </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="5" t="s">
@@ -1875,6 +1977,9 @@
       <c r="B75" t="s">
         <v>163</v>
       </c>
+      <c r="D75" t="n">
+        <v>17388</v>
+      </c>
       <c r="E75" t="n">
         <v>40000</v>
       </c>
@@ -1938,6 +2043,9 @@
       <c r="B81" t="s">
         <v>175</v>
       </c>
+      <c r="N81" t="n">
+        <v>24646</v>
+      </c>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="5" t="s">
@@ -1946,6 +2054,12 @@
       <c r="B82" t="s">
         <v>177</v>
       </c>
+      <c r="D82" t="n">
+        <v>66090</v>
+      </c>
+      <c r="E82" t="n">
+        <v>110000</v>
+      </c>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="4" t="s">
@@ -1997,6 +2111,12 @@
       <c r="B88" t="s">
         <v>188</v>
       </c>
+      <c r="E88" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H88" t="n">
+        <v>3840</v>
+      </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="4" t="s">
@@ -2012,6 +2132,15 @@
       </c>
       <c r="B90" t="s">
         <v>192</v>
+      </c>
+      <c r="D90" t="n">
+        <v>66700</v>
+      </c>
+      <c r="E90" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L90" t="n">
+        <v>60000</v>
       </c>
     </row>
     <row r="91" spans="1:16">

--- a/python/savings.xlsx
+++ b/python/savings.xlsx
@@ -1015,8 +1015,8 @@
   </sheetPr>
   <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -1027,12 +1027,11 @@
     <col bestFit="1" customWidth="1" max="4" min="4" width="6"/>
     <col bestFit="1" customWidth="1" max="5" min="5" width="7"/>
     <col bestFit="1" customWidth="1" max="6" min="6" width="9.42578125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="6"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="3.5703125"/>
+    <col bestFit="1" customWidth="1" max="8" min="7" width="6"/>
     <col bestFit="1" customWidth="1" max="9" min="9" width="4.5703125"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" width="3.28515625"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" width="6"/>
     <col bestFit="1" customWidth="1" max="11" min="11" width="13.28515625"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" width="6"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" width="7"/>
     <col bestFit="1" customWidth="1" max="13" min="13" width="7.85546875"/>
     <col bestFit="1" customWidth="1" max="14" min="14" width="8.85546875"/>
     <col bestFit="1" customWidth="1" max="15" min="15" width="9.5703125"/>
@@ -1104,6 +1103,15 @@
       <c r="B3" t="s">
         <v>19</v>
       </c>
+      <c r="D3" t="n">
+        <v>34720</v>
+      </c>
+      <c r="E3" t="n">
+        <v>500</v>
+      </c>
+      <c r="P3" t="n">
+        <v>16219</v>
+      </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="5" t="s">
@@ -1156,6 +1164,9 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
+      <c r="P8" t="n">
+        <v>10851</v>
+      </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="4" t="s">
@@ -1263,6 +1274,15 @@
       <c r="B18" t="s">
         <v>49</v>
       </c>
+      <c r="D18" t="n">
+        <v>32326</v>
+      </c>
+      <c r="E18" t="n">
+        <v>120000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4667</v>
+      </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="4" t="s">
@@ -1337,6 +1357,9 @@
       <c r="B25" t="s">
         <v>63</v>
       </c>
+      <c r="O25" t="n">
+        <v>99670</v>
+      </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="5" t="s">
@@ -1400,13 +1423,13 @@
         <v>71</v>
       </c>
       <c r="K29" t="n">
-        <v>64000</v>
+        <v>56054</v>
       </c>
       <c r="L29" t="n">
         <v>12000</v>
       </c>
       <c r="O29" t="n">
-        <v>78000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1439,10 +1462,13 @@
         <v>77</v>
       </c>
       <c r="D32" t="n">
-        <v>5500</v>
+        <v>2574</v>
       </c>
       <c r="E32" t="n">
-        <v>82000</v>
+        <v>89500</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6000</v>
       </c>
       <c r="L32" t="n">
         <v>58000</v>
@@ -1498,6 +1524,9 @@
       <c r="N35" t="n">
         <v>6364</v>
       </c>
+      <c r="P35" t="n">
+        <v>10851</v>
+      </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="5" t="s">
@@ -1559,6 +1588,12 @@
       <c r="B40" t="s">
         <v>93</v>
       </c>
+      <c r="D40" t="n">
+        <v>40000</v>
+      </c>
+      <c r="P40" t="n">
+        <v>10851</v>
+      </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="4" t="s">
@@ -1567,6 +1602,12 @@
       <c r="B41" t="s">
         <v>95</v>
       </c>
+      <c r="E41" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P41" t="n">
+        <v>10851</v>
+      </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="5" t="s">
@@ -1575,6 +1616,15 @@
       <c r="B42" t="s">
         <v>97</v>
       </c>
+      <c r="D42" t="n">
+        <v>26950</v>
+      </c>
+      <c r="E42" t="n">
+        <v>26500</v>
+      </c>
+      <c r="L42" t="n">
+        <v>24000</v>
+      </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="4" t="s">
@@ -1583,6 +1633,18 @@
       <c r="B43" t="s">
         <v>99</v>
       </c>
+      <c r="D43" t="n">
+        <v>51824</v>
+      </c>
+      <c r="E43" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L43" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P43" t="n">
+        <v>6500</v>
+      </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="5" t="s">
@@ -1841,6 +1903,9 @@
       <c r="O61" t="n">
         <v>84000</v>
       </c>
+      <c r="P61" t="n">
+        <v>7234</v>
+      </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="5" t="s">
@@ -1910,6 +1975,9 @@
       <c r="H67" t="n">
         <v>67053</v>
       </c>
+      <c r="J67" t="n">
+        <v>58000</v>
+      </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="5" t="s">
@@ -1937,6 +2005,18 @@
       <c r="B70" t="s">
         <v>153</v>
       </c>
+      <c r="E70" t="n">
+        <v>40000</v>
+      </c>
+      <c r="H70" t="n">
+        <v>44724</v>
+      </c>
+      <c r="L70" t="n">
+        <v>45000</v>
+      </c>
+      <c r="P70" t="n">
+        <v>14468</v>
+      </c>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="4" t="s">
@@ -1991,6 +2071,12 @@
       <c r="B76" t="s">
         <v>165</v>
       </c>
+      <c r="D76" t="n">
+        <v>22596</v>
+      </c>
+      <c r="E76" t="n">
+        <v>65000</v>
+      </c>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="4" t="s">
@@ -2026,6 +2112,15 @@
       </c>
       <c r="B79" t="s">
         <v>171</v>
+      </c>
+      <c r="D79" t="n">
+        <v>42002</v>
+      </c>
+      <c r="E79" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L79" t="n">
+        <v>14000</v>
       </c>
     </row>
     <row r="80" spans="1:16">
